--- a/biology/Médecine/Condyle_latéral_du_fémur/Condyle_latéral_du_fémur.xlsx
+++ b/biology/Médecine/Condyle_latéral_du_fémur/Condyle_latéral_du_fémur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Condyle_lat%C3%A9ral_du_f%C3%A9mur</t>
+          <t>Condyle_latéral_du_fémur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le condyle latéral du fémur est la projection osseuse latérale de l'extrémité inférieure du fémur. Il s'articule avec le condyle latéral du tibia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Condyle_lat%C3%A9ral_du_f%C3%A9mur</t>
+          <t>Condyle_latéral_du_fémur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le condyle latéral du fémur a globalement une forme d'une portion d'ovoïde avec son grand axe orienté d'avant en arrière.
 Il est séparé du condyle médial du fémur par la fosse intercondylaire.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Condyle_lat%C3%A9ral_du_f%C3%A9mur</t>
+          <t>Condyle_latéral_du_fémur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lésion la plus fréquente du condyle fémoral latéral est une fracture ostéochondrale associée à une luxation rotulienne[1]. La fracture ostéochondrale survient sur la partie portante du condyle latéral. En règle générale, le condyle se fracture et la rotule peut se disloquer à la suite d'un impact sévère due à des activités telles que le ski alpin et le parachutisme.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lésion la plus fréquente du condyle fémoral latéral est une fracture ostéochondrale associée à une luxation rotulienne. La fracture ostéochondrale survient sur la partie portante du condyle latéral. En règle générale, le condyle se fracture et la rotule peut se disloquer à la suite d'un impact sévère due à des activités telles que le ski alpin et le parachutisme.
 La chirurgie est généralement utilisée pour réparer une fracture ostéochondrale.
 </t>
         </is>
